--- a/Talent and Weapon Level-Up Material Drops/data/output.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/output.xlsx
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.01153846153846154</v>
+        <v>0.01102941176470588</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.02307692307692308</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1213235294117647</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.02692307692307692</v>
+        <v>0.03308823529411765</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.1192307692307692</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.55</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">

--- a/Talent and Weapon Level-Up Material Drops/data/output.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/output.xlsx
@@ -483,14 +483,14 @@
     <col width="4.6640625" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5.5546875" customWidth="1" min="5" max="5"/>
-    <col width="9.88671875" customWidth="1" min="6" max="6"/>
+    <col width="9.6640625" customWidth="1" min="6" max="6"/>
     <col width="2.77734375" customWidth="1" min="7" max="7"/>
     <col width="4.88671875" customWidth="1" min="8" max="8"/>
     <col width="6.44140625" customWidth="1" min="9" max="9"/>
     <col width="4.6640625" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="5.5546875" customWidth="1" min="12" max="12"/>
-    <col width="9.88671875" customWidth="1" min="13" max="13"/>
+    <col width="9.6640625" customWidth="1" min="13" max="13"/>
     <col width="2.77734375" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>

--- a/Talent and Weapon Level-Up Material Drops/data/output.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/output.xlsx
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>0.01102941176470588</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" t="n">
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" t="n">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" t="n">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0.1213235294117647</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" t="n">
@@ -757,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>0.03308823529411765</v>
+        <v>0.04</v>
       </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" t="n">
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>0.1139705882352941</v>
+        <v>0.12</v>
       </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" t="n">
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>0.1029411764705882</v>
+        <v>0.1033333333333333</v>
       </c>
       <c r="G11" s="1" t="n"/>
       <c r="H11" t="n">
@@ -871,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.55</v>
       </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" t="n">
